--- a/biology/Zoologie/Exothecinae/Exothecinae.xlsx
+++ b/biology/Zoologie/Exothecinae/Exothecinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Exothecinae sont une sous-famille d'insectes hyménoptères de la famille des Braconidae[1] (les « guêpes parasites »).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Exothecinae sont une sous-famille d'insectes hyménoptères de la famille des Braconidae (les « guêpes parasites »).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Exothecinae a été créée par Arnold Förster en 1862[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Exothecinae a été créée par Arnold Förster en 1862,.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apparence
-Guêpes parasites assez petites (1,2-3,5 millimètres), sombres et relativement élancées aux ailes arrondies.
-Style de vie
-Ce sont des parasitoïdes qui parasitent les larves de coléoptères ou de papillons au mode de vie caché, quelques-uns s'attaquent aussi aux guêpes végétales.
+          <t>Apparence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guêpes parasites assez petites (1,2-3,5 millimètres), sombres et relativement élancées aux ailes arrondies.
 </t>
         </is>
       </c>
@@ -573,10 +590,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Style de vie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des parasitoïdes qui parasitent les larves de coléoptères ou de papillons au mode de vie caché, quelques-uns s'attaquent aussi aux guêpes végétales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exothecinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exothecinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>genre Afrotritermus Belokobylskij, 1995
 genre Aulosaphanes Belokobylskij, 2004
